--- a/Tests/Test6/test_GA_DoD.xlsx
+++ b/Tests/Test6/test_GA_DoD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abb-my.sharepoint.com/personal/pierfrancesco_losi_se_abb_com/Documents/Documents/Projects/Model/Tests/Test6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_B6D468AD1B4E46D5DBBDD45A47543ABCBA225083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EC9E08-9335-47A5-8F07-0637EB3FD211}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_B6D468AD1B4E46D5DBBDD45A47543ABCBA225083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD19FAC5-6B0A-4F07-9A57-56C112B6861C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Capacity [MWh]</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">default design attributes </t>
+  </si>
+  <si>
+    <t>Capacity/Power ratio</t>
   </si>
 </sst>
 </file>
@@ -216,6 +219,16 @@
               <a:t>Design Space</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>(DoD)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="3200" b="1"/>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:layout>
@@ -304,7 +317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42209DF8-EA02-40B5-9A11-BBAF899FC5F0}" type="CELLRANGE">
+                    <a:fld id="{34C97622-2773-4D63-BDAE-512FF8928C1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -338,7 +351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EF399B0-C08F-47D9-8841-580B0078537B}" type="CELLRANGE">
+                    <a:fld id="{44C74388-019D-4D3D-AC7E-9BD2DD7E32BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -372,7 +385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{087CE3A0-363F-4BBA-AA7F-8AEA091B6F74}" type="CELLRANGE">
+                    <a:fld id="{33CC018B-2AB0-4B1C-89DE-C396BEC55477}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -406,7 +419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C9B596B-3D79-4816-AA10-86718DB31A36}" type="CELLRANGE">
+                    <a:fld id="{237FCFCC-D0BB-46A2-99CD-29B2565DED2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -440,7 +453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1941538D-9872-4B86-A8CE-C2D041A2883D}" type="CELLRANGE">
+                    <a:fld id="{35AF19CC-B233-48F0-96E2-ED641CCACE81}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -474,7 +487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F73EAD3-2A84-4159-B000-DB28F6037AF3}" type="CELLRANGE">
+                    <a:fld id="{C493C666-6CC9-48F9-82AA-2B9D1BB66150}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -508,7 +521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE581D65-892B-43CA-8A83-267FA08A7CCF}" type="CELLRANGE">
+                    <a:fld id="{44668605-E51C-4FC4-85AB-1ECE63A8B936}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -542,7 +555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CBB4FA1-4B24-40E0-830D-2400CE7643FC}" type="CELLRANGE">
+                    <a:fld id="{C86B00C5-72C2-4F38-87D8-F67DA9833693}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -576,7 +589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B713B27-ADB8-4621-86C5-DEF89BD148E1}" type="CELLRANGE">
+                    <a:fld id="{7FC0DAB7-79E1-425F-92D7-41F01E59D742}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -610,7 +623,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AA89975-3A5C-4516-9F03-2A5CED61907C}" type="CELLRANGE">
+                    <a:fld id="{E28F5E14-45CB-4E7F-B3AB-936A2E500A96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -644,7 +657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6252A4EE-C536-40BF-94DF-1A90E7512B7C}" type="CELLRANGE">
+                    <a:fld id="{FBFAC31D-F2FE-4EE3-B6E3-A57C4103BD26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -678,7 +691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EBA11C0-10E3-4CC5-B5F6-16ABB4FE47B9}" type="CELLRANGE">
+                    <a:fld id="{43396839-65C6-4BFE-90F1-3A2B3BDAFE0F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -712,7 +725,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3798AC8-72C9-4B61-B570-C94BCE36AAD0}" type="CELLRANGE">
+                    <a:fld id="{6F74D40D-C21B-43C0-A371-1151CDFD1218}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -746,7 +759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE7D141E-C5A8-4E7A-9660-6A755C602DB1}" type="CELLRANGE">
+                    <a:fld id="{63BE7988-6F46-413C-A73D-21808D8A6F94}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -780,7 +793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{331C1B14-AF48-4C69-ABDB-8EF70DDB78CA}" type="CELLRANGE">
+                    <a:fld id="{F7392BC5-D282-4132-B4B6-7E5A12A09C28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -975,7 +988,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$D$2:$D$16</c15:f>
+                <c15:f>Sheet1!$E$2:$E$16</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
@@ -1365,6 +1378,18 @@
               <a:rPr lang="en-US" sz="3200" b="1"/>
               <a:t>Objective Space</a:t>
             </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="3200" b="1"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>(capacity/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t>power ratio)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="3200" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1449,67 +1474,636 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1BABD276-A064-4F86-B9DA-BDA7376428F1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F623CFB-243F-430C-8397-6324D2430B69}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D9EC66E5-3F6B-4BA7-83F5-6AA8C40B7938}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{118364FC-DE3C-44B2-B265-6F0D69F260AB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7DC7A6FA-385D-4533-8300-F0CA794F9769}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{62011EE8-619A-40E6-AB09-120AF76E72AD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E9FCD60F-8F27-4B62-AEE4-C2867C6E8EA3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7F216981-BE5B-4FED-9B1B-AC47B97B38A9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C1F5D37A-8A53-4CE4-A7BC-33CB9A1F6A63}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4949CA91-C95C-40E3-B894-7DD4AEC715E9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D5581695-DCDD-4690-B439-0DA4DE09F0FF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CACED55B-466A-4457-8757-2D1EA336CDE2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{10BA8605-DE0C-4081-A04E-F02033FEDB40}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{980ADCE1-440E-4926-890F-B38EA548A55E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C97C1AAC-D0D6-4E9F-9D51-B390A70846DE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-04C8-4BF7-A897-7EF84E49DAAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>482.94626040684801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>536.60169677806721</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>636.92381142778845</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1159.372140528646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1383.3789118892021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1671.1086368016711</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1957.768084598317</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2463.7297659805231</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2769.9163529624529</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3259.370556021544</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3690.6005941845679</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4725.3793481046032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5157.7174719199274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6176.8538557343136</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6507.7019719488708</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>482.94626040684801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>536.60169677806721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>636.92381142778845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1159.372140528646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1383.3789118892021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1671.1086368016711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1957.768084598317</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2463.7297659805231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2769.9163529624529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3259.370556021544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3690.6005941845679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4725.3793481046032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5157.7174719199274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6176.8538557343136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6507.7019719488708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
                   <c:v>89.034584343778803</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1559,6 +2153,59 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$D$2:$D$16</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>0.46</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>35.49</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.62</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.75</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>78.67</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>41.50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.56</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>73.40</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>15.14</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>24.17</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>27.95</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>28.84</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>31.62</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21.87</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>23.32</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-19BD-4CE9-AE55-F6C1B57F8E17}"/>
             </c:ext>
@@ -1567,7 +2214,7 @@
         <c:dLbls>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2981,7 +3628,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{28BAFEFE-683F-49B5-801D-EB4196B57FF4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2992,7 +3639,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0CA9F41C-8C62-45F9-9DF8-4E7B8689C849}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="55" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3003,7 +3650,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9288060" cy="6065672"/>
+    <xdr:ext cx="9281438" cy="6054247"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3036,7 +3683,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9288060" cy="6065672"/>
+    <xdr:ext cx="9278471" cy="6058647"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3353,21 +4000,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3376,19 +4025,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3399,17 +4051,21 @@
         <v>1.961865812381443</v>
       </c>
       <c r="D2" s="5">
+        <f>B2/C2</f>
+        <v>0.46191295667957871</v>
+      </c>
+      <c r="E2" s="5">
         <v>79.983113015294506</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>482.94626040684801</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>89.034584343778803</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -3420,17 +4076,21 @@
         <v>1.961865812381443</v>
       </c>
       <c r="D3" s="5">
+        <f t="shared" ref="D3:D16" si="0">B3/C3</f>
+        <v>35.493665146198538</v>
+      </c>
+      <c r="E3" s="5">
         <v>79.966371576395559</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>536.60169677806721</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>68.287230424718985</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -3441,17 +4101,21 @@
         <v>4.3836682247009193</v>
       </c>
       <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>23.617902432995496</v>
+      </c>
+      <c r="E4" s="5">
         <v>72.644007563660054</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>636.92381142778845</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>64.748442689731419</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3462,17 +4126,21 @@
         <v>33.998986397319982</v>
       </c>
       <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7492030179011149</v>
+      </c>
+      <c r="E5" s="5">
         <v>78.882304118618279</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>1159.372140528646</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>55.705294654969727</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -3483,17 +4151,21 @@
         <v>3.6881381103266211</v>
       </c>
       <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>78.674762192277058</v>
+      </c>
+      <c r="E6" s="5">
         <v>78.082872459390614</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>1383.3789118892021</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>48.821541407915198</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>11</v>
       </c>
@@ -3504,20 +4176,24 @@
         <v>9.1032370587652913</v>
       </c>
       <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>41.499740056689518</v>
+      </c>
+      <c r="E7" s="5">
         <v>79.117752673822849</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>1671.1086368016711</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>43.502047314115948</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="5"/>
+      <c r="J7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3528,17 +4204,21 @@
         <v>17.001754023605969</v>
       </c>
       <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>26.557266399539273</v>
+      </c>
+      <c r="E8" s="5">
         <v>79.388408450447173</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>1957.768084598317</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>40.308677561800948</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3549,17 +4229,21 @@
         <v>8.3713355379345309</v>
       </c>
       <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>73.403365673012033</v>
+      </c>
+      <c r="E9" s="5">
         <v>79.86647316795252</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>2463.7297659805231</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>33.480276242995053</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>12</v>
       </c>
@@ -3570,17 +4254,21 @@
         <v>44.019991106045183</v>
       </c>
       <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>15.136165318192024</v>
+      </c>
+      <c r="E10" s="5">
         <v>79.980455490735011</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>2769.9163529624529</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>31.33114110466278</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -3591,17 +4279,21 @@
         <v>34.301180931959642</v>
       </c>
       <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>24.170301625618524</v>
+      </c>
+      <c r="E11" s="5">
         <v>78.75301564386605</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>3259.370556021544</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>25.62522273480316</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3612,17 +4304,21 @@
         <v>34.301180931959642</v>
       </c>
       <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>27.945948289340159</v>
+      </c>
+      <c r="E12" s="5">
         <v>79.992286402983936</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>3690.6005941845679</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>23.77724873699146</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3633,17 +4329,21 @@
         <v>43.9693910976872</v>
       </c>
       <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>28.842246958638924</v>
+      </c>
+      <c r="E13" s="5">
         <v>79.963097597296624</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>4725.3793481046032</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>20.974267767907531</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3654,17 +4354,21 @@
         <v>44.312068438459967</v>
       </c>
       <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>31.623952119221247</v>
+      </c>
+      <c r="E14" s="5">
         <v>79.754126475058669</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>5157.7174719199274</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>20.590106574658051</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3675,17 +4379,21 @@
         <v>77.487629673960413</v>
       </c>
       <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>21.874197107616858</v>
+      </c>
+      <c r="E15" s="5">
         <v>79.990638955685242</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>6176.8538557343136</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>19.672412568342072</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>0</v>
       </c>
@@ -3696,40 +4404,44 @@
         <v>77.487629673960413</v>
       </c>
       <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>23.315420509636354</v>
+      </c>
+      <c r="E16" s="5">
         <v>79.99126304705166</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>6507.7019719488708</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>19.543605398037251</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
-        <f>AVERAGE(D2:D16)</f>
+      <c r="E18" s="7">
+        <f>AVERAGE(E2:E16)</f>
         <v>79.090412442550587</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7">
-        <f>MEDIAN(D2:D16)</f>
+      <c r="E19" s="7">
+        <f>MEDIAN(E2:E16)</f>
         <v>79.86647316795252</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
-        <f>_xlfn.STDEV.P(D2:D16)</f>
+      <c r="E20" s="7">
+        <f>_xlfn.STDEV.P(E2:E16)</f>
         <v>1.8150123044706434</v>
       </c>
     </row>

--- a/Tests/Test6/test_GA_DoD.xlsx
+++ b/Tests/Test6/test_GA_DoD.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abb-my.sharepoint.com/personal/pierfrancesco_losi_se_abb_com/Documents/Documents/Projects/Model/Tests/Test6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEPILOS\OneDrive - ABB\Documents\Projects\Model\Tests\Test6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_B6D468AD1B4E46D5DBBDD45A47543ABCBA225083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD19FAC5-6B0A-4F07-9A57-56C112B6861C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306DE7C0-2002-49C2-8F9D-6F44E8E92FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Design Space" sheetId="2" r:id="rId2"/>
+    <sheet name="Design Space" sheetId="4" r:id="rId2"/>
     <sheet name="Objective Space" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -317,7 +317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34C97622-2773-4D63-BDAE-512FF8928C1C}" type="CELLRANGE">
+                    <a:fld id="{DD55BF82-BC18-41F9-9696-5809B2FBA8F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -340,7 +340,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000000-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -351,7 +351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44C74388-019D-4D3D-AC7E-9BD2DD7E32BF}" type="CELLRANGE">
+                    <a:fld id="{A7445B6A-94EC-4FB1-A68C-72EF1133E9E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -374,7 +374,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000001-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -385,7 +385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33CC018B-2AB0-4B1C-89DE-C396BEC55477}" type="CELLRANGE">
+                    <a:fld id="{902A0EC6-D182-48A1-AFFA-3422622B2D86}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -408,7 +408,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000002-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -419,7 +419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{237FCFCC-D0BB-46A2-99CD-29B2565DED2B}" type="CELLRANGE">
+                    <a:fld id="{A4ABEF28-E8DE-42ED-8912-2D1958856B8B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -442,7 +442,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000003-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -453,7 +453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35AF19CC-B233-48F0-96E2-ED641CCACE81}" type="CELLRANGE">
+                    <a:fld id="{6CDDA441-3CAA-4307-B395-4D30D32F1255}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -476,7 +476,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000004-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -487,7 +487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C493C666-6CC9-48F9-82AA-2B9D1BB66150}" type="CELLRANGE">
+                    <a:fld id="{1E9716A3-1451-474A-9F5A-E87737D98796}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -510,7 +510,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000005-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -521,7 +521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44668605-E51C-4FC4-85AB-1ECE63A8B936}" type="CELLRANGE">
+                    <a:fld id="{A13A35A8-26F1-4AD6-AFED-642774E2BA6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -544,7 +544,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000006-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -555,7 +555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C86B00C5-72C2-4F38-87D8-F67DA9833693}" type="CELLRANGE">
+                    <a:fld id="{E6D14A5B-462F-440D-B60E-35FF79877D3C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -578,7 +578,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000007-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -589,7 +589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FC0DAB7-79E1-425F-92D7-41F01E59D742}" type="CELLRANGE">
+                    <a:fld id="{CD1DB844-774D-4DFB-A19A-EE6538B34258}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -612,7 +612,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000008-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -623,7 +623,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E28F5E14-45CB-4E7F-B3AB-936A2E500A96}" type="CELLRANGE">
+                    <a:fld id="{112E5B9A-3AA5-47D8-A64C-A57FD1217F2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -646,7 +646,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{00000009-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -657,7 +657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBFAC31D-F2FE-4EE3-B6E3-A57C4103BD26}" type="CELLRANGE">
+                    <a:fld id="{9F7F4C21-1539-4AEA-99BC-4413BEE831B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -680,7 +680,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{0000000A-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -691,7 +691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43396839-65C6-4BFE-90F1-3A2B3BDAFE0F}" type="CELLRANGE">
+                    <a:fld id="{190F3CE3-5D21-4042-8AFF-9CB121632D5C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -714,7 +714,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{0000000B-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -725,7 +725,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F74D40D-C21B-43C0-A371-1151CDFD1218}" type="CELLRANGE">
+                    <a:fld id="{8203EBE5-CA70-414F-8566-79536576DD83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -748,7 +748,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{0000000C-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -759,7 +759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63BE7988-6F46-413C-A73D-21808D8A6F94}" type="CELLRANGE">
+                    <a:fld id="{E9B3132F-0474-46A1-BE49-7707A5CCD32E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -782,7 +782,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{0000000D-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -793,7 +793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7392BC5-D282-4132-B4B6-7E5A12A09C28}" type="CELLRANGE">
+                    <a:fld id="{967B8338-C7ED-4C23-8C54-D857E1010A27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -816,7 +816,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-8F11-43B2-A4E6-624EEB829D8F}"/>
+                  <c16:uniqueId val="{0000000E-B754-4EDA-B25A-A9FCBB1740D4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1040,7 +1040,7 @@
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-8F11-43B2-A4E6-624EEB829D8F}"/>
+              <c16:uniqueId val="{0000000F-B754-4EDA-B25A-A9FCBB1740D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1482,7 +1482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BABD276-A064-4F86-B9DA-BDA7376428F1}" type="CELLRANGE">
+                    <a:fld id="{89B6F96E-95B5-4ECD-A9AA-19BAB97924EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1516,7 +1516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F623CFB-243F-430C-8397-6324D2430B69}" type="CELLRANGE">
+                    <a:fld id="{24C2C805-40FD-45F3-94BD-96684DF8BC7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1550,7 +1550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9EC66E5-3F6B-4BA7-83F5-6AA8C40B7938}" type="CELLRANGE">
+                    <a:fld id="{D4EB6715-F80C-4521-A5FE-D14238D351AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1584,7 +1584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{118364FC-DE3C-44B2-B265-6F0D69F260AB}" type="CELLRANGE">
+                    <a:fld id="{B12D3784-36A5-4D91-8BBC-43850F7D792A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1618,7 +1618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DC7A6FA-385D-4533-8300-F0CA794F9769}" type="CELLRANGE">
+                    <a:fld id="{73C248A8-21EE-428F-9360-1AA4AD4C372C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1652,7 +1652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62011EE8-619A-40E6-AB09-120AF76E72AD}" type="CELLRANGE">
+                    <a:fld id="{7AEAC137-EE2E-4AC3-A8C3-5FEEDF8C170D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1686,7 +1686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9FCD60F-8F27-4B62-AEE4-C2867C6E8EA3}" type="CELLRANGE">
+                    <a:fld id="{C3510B7A-6E8A-4878-9689-23ECA10CB9C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1720,7 +1720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F216981-BE5B-4FED-9B1B-AC47B97B38A9}" type="CELLRANGE">
+                    <a:fld id="{EA22B1CE-8451-4BCD-B068-100219FB852B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1754,7 +1754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1F5D37A-8A53-4CE4-A7BC-33CB9A1F6A63}" type="CELLRANGE">
+                    <a:fld id="{A1CD6C17-32AB-4D3D-91A1-AF70196D14DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1788,7 +1788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4949CA91-C95C-40E3-B894-7DD4AEC715E9}" type="CELLRANGE">
+                    <a:fld id="{C9545AA5-9296-4AED-A443-165B1DE01995}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1822,7 +1822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5581695-DCDD-4690-B439-0DA4DE09F0FF}" type="CELLRANGE">
+                    <a:fld id="{83FBBD84-C027-469C-BC80-7A2A74D65896}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1856,7 +1856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CACED55B-466A-4457-8757-2D1EA336CDE2}" type="CELLRANGE">
+                    <a:fld id="{F4E3451F-4EDD-4107-AD1E-9AA48DE4691D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1890,7 +1890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10BA8605-DE0C-4081-A04E-F02033FEDB40}" type="CELLRANGE">
+                    <a:fld id="{5E759D30-2FE8-40BA-9BE0-FD23437C032B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1924,7 +1924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{980ADCE1-440E-4926-890F-B38EA548A55E}" type="CELLRANGE">
+                    <a:fld id="{8F135301-FD2B-44BE-AD87-EC4F489F7579}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1958,7 +1958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C97C1AAC-D0D6-4E9F-9D51-B390A70846DE}" type="CELLRANGE">
+                    <a:fld id="{372DF709-3D19-4137-BC29-8B69C4F2917F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3625,10 +3625,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{28BAFEFE-683F-49B5-801D-EB4196B57FF4}">
-  <sheetPr/>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DA93487C-DA12-4EF4-8401-05EB57615B1E}">
+  <sheetPr codeName="Chart2"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3637,7 +3637,7 @@
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0CA9F41C-8C62-45F9-9DF8-4E7B8689C849}">
-  <sheetPr/>
+  <sheetPr codeName="Chart3"/>
   <sheetViews>
     <sheetView zoomScale="55" workbookViewId="0"/>
   </sheetViews>
@@ -3650,13 +3650,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9281438" cy="6054247"/>
+    <xdr:ext cx="9281438" cy="6045548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB94CB2-BA5A-BF7A-759B-E61AED301EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773D51DB-3886-6273-572B-73AF2B797107}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9278471" cy="6058647"/>
+    <xdr:ext cx="9294091" cy="6049818"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3997,12 +3997,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
